--- a/API-Auto/testFile/case/个人中心.xlsx
+++ b/API-Auto/testFile/case/个人中心.xlsx
@@ -4,43 +4,43 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="25" activeTab="33"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="28" activeTab="33"/>
   </bookViews>
   <sheets>
-    <sheet name="我的订单 （商品图片）" sheetId="1" r:id="rId1"/>
-    <sheet name="我的收藏商品" sheetId="2" r:id="rId2"/>
-    <sheet name="常够清单 （商品图片）" sheetId="3" r:id="rId3"/>
-    <sheet name="商品列表收藏状态" sheetId="4" r:id="rId4"/>
-    <sheet name="添加商品收藏" sheetId="5" r:id="rId5"/>
-    <sheet name="取消收藏商品" sheetId="6" r:id="rId6"/>
-    <sheet name="商品被收藏数量" sheetId="7" r:id="rId7"/>
-    <sheet name="单一商品收藏状态" sheetId="8" r:id="rId8"/>
-    <sheet name="订单组" sheetId="9" r:id="rId9"/>
-    <sheet name="不同状态的订单组" sheetId="10" r:id="rId10"/>
-    <sheet name="订单详情 （商品信息）" sheetId="11" r:id="rId11"/>
-    <sheet name="订单详情 （部分基本信息）" sheetId="12" r:id="rId12"/>
-    <sheet name="账期汇总订单" sheetId="13" r:id="rId13"/>
-    <sheet name="账户余额及明细" sheetId="14" r:id="rId14"/>
-    <sheet name="余额提现申请" sheetId="15" r:id="rId15"/>
-    <sheet name="用户提现记录" sheetId="16" r:id="rId16"/>
-    <sheet name="充值余额及明细" sheetId="17" r:id="rId17"/>
-    <sheet name="优惠券" sheetId="18" r:id="rId18"/>
-    <sheet name="发送短信验证码" sheetId="19" r:id="rId19"/>
-    <sheet name="验证输入的验证码是否正确" sheetId="20" r:id="rId20"/>
-    <sheet name="多会员管理（用户列表）" sheetId="21" r:id="rId21"/>
-    <sheet name="多会员管理（用户切换）" sheetId="22" r:id="rId22"/>
-    <sheet name="安全设置修改密码" sheetId="23" r:id="rId23"/>
-    <sheet name="我的收藏" sheetId="24" r:id="rId24"/>
-    <sheet name="常购清单" sheetId="25" r:id="rId25"/>
-    <sheet name="个人中心首页用户信息" sheetId="26" r:id="rId26"/>
-    <sheet name="个人中心首页专属客服" sheetId="27" r:id="rId27"/>
-    <sheet name="个人中心首页业务员" sheetId="28" r:id="rId28"/>
-    <sheet name="个人中心首页用户总资产" sheetId="29" r:id="rId29"/>
-    <sheet name="个人中心首页我的订单" sheetId="30" r:id="rId30"/>
-    <sheet name="退出登录" sheetId="31" r:id="rId31"/>
-    <sheet name="个人中心首页许可证" sheetId="32" r:id="rId32"/>
-    <sheet name="个人中心首页收藏商品" sheetId="33" r:id="rId33"/>
-    <sheet name="个人中心麻黄碱效期" sheetId="34" r:id="rId34"/>
+    <sheet name="1我的订单(商品图片)" sheetId="1" r:id="rId1"/>
+    <sheet name="2我的收藏商品" sheetId="2" r:id="rId2"/>
+    <sheet name="3常够清单(商品图片)" sheetId="3" r:id="rId3"/>
+    <sheet name="4商品列表收藏状态" sheetId="4" r:id="rId4"/>
+    <sheet name="5添加商品收藏" sheetId="5" r:id="rId5"/>
+    <sheet name="6取消收藏商品" sheetId="6" r:id="rId6"/>
+    <sheet name="7商品被收藏数量" sheetId="7" r:id="rId7"/>
+    <sheet name="8单一商品收藏状态" sheetId="8" r:id="rId8"/>
+    <sheet name="9订单组" sheetId="9" r:id="rId9"/>
+    <sheet name="10不同状态的订单组" sheetId="10" r:id="rId10"/>
+    <sheet name="11订单详情(商品信息)" sheetId="11" r:id="rId11"/>
+    <sheet name="12订单详情(部分基本信息)" sheetId="12" r:id="rId12"/>
+    <sheet name="13账期汇总订单" sheetId="13" r:id="rId13"/>
+    <sheet name="14账户余额及明细" sheetId="14" r:id="rId14"/>
+    <sheet name="15余额提现申请" sheetId="15" r:id="rId15"/>
+    <sheet name="16用户提现记录" sheetId="16" r:id="rId16"/>
+    <sheet name="17充值余额及明细" sheetId="17" r:id="rId17"/>
+    <sheet name="18优惠券" sheetId="18" r:id="rId18"/>
+    <sheet name="19发送短信验证码" sheetId="19" r:id="rId19"/>
+    <sheet name="20验证输入的验证码是否正确" sheetId="20" r:id="rId20"/>
+    <sheet name="21多会员管理(用户列表)" sheetId="21" r:id="rId21"/>
+    <sheet name="22多会员管理(用户切换)" sheetId="22" r:id="rId22"/>
+    <sheet name="23安全设置修改密码" sheetId="23" r:id="rId23"/>
+    <sheet name="24我的收藏" sheetId="24" r:id="rId24"/>
+    <sheet name="25常购清单" sheetId="25" r:id="rId25"/>
+    <sheet name="26个人中心首页用户信息" sheetId="26" r:id="rId26"/>
+    <sheet name="27个人中心首页专属客服" sheetId="27" r:id="rId27"/>
+    <sheet name="28个人中心首页业务员" sheetId="28" r:id="rId28"/>
+    <sheet name="29个人中心首页用户总资产" sheetId="29" r:id="rId29"/>
+    <sheet name="30个人中心首页我的订单" sheetId="30" r:id="rId30"/>
+    <sheet name="31退出登录" sheetId="31" r:id="rId31"/>
+    <sheet name="32个人中心首页许可证" sheetId="32" r:id="rId32"/>
+    <sheet name="33个人中心首页收藏商品" sheetId="33" r:id="rId33"/>
+    <sheet name="34个人中心麻黄碱效期" sheetId="34" r:id="rId34"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1155,12 +1155,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,7 +1172,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1184,15 +1191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,6 +1199,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1214,15 +1242,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,15 +1251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,22 +1282,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,17 +1305,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1329,7 +1322,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1388,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,19 +1436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,43 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,31 +1472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,43 +1502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,21 +1513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1556,33 +1534,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1603,6 +1564,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1614,9 +1590,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1625,169 +1618,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2141,7 +2128,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2179,56 +2166,56 @@
       </c>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2243,12 +2230,12 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="6:13">
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
@@ -2306,19 +2293,19 @@
       <c r="A2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2326,19 +2313,19 @@
       <c r="A3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2346,19 +2333,19 @@
       <c r="A4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2366,19 +2353,19 @@
       <c r="A5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2386,19 +2373,19 @@
       <c r="A6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2406,19 +2393,19 @@
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2426,19 +2413,19 @@
       <c r="A8" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2446,19 +2433,19 @@
       <c r="A9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2466,19 +2453,19 @@
       <c r="A10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2486,19 +2473,19 @@
       <c r="A11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2506,19 +2493,19 @@
       <c r="A12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2526,19 +2513,19 @@
       <c r="A13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2546,19 +2533,19 @@
       <c r="A14" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2566,19 +2553,19 @@
       <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2586,19 +2573,19 @@
       <c r="A16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2606,19 +2593,19 @@
       <c r="A17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2626,19 +2613,19 @@
       <c r="A18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2646,19 +2633,19 @@
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2666,19 +2653,19 @@
       <c r="A20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2735,19 +2722,19 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2755,19 +2742,19 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2775,19 +2762,19 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2845,19 +2832,19 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2865,19 +2852,19 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2885,19 +2872,19 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2955,19 +2942,19 @@
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2975,19 +2962,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2995,19 +2982,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3064,19 +3051,19 @@
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3084,19 +3071,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3104,19 +3091,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3132,7 +3119,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3173,19 +3160,19 @@
       <c r="A2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3193,19 +3180,19 @@
       <c r="A3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3213,19 +3200,19 @@
       <c r="A4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3233,19 +3220,19 @@
       <c r="A5" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3253,19 +3240,19 @@
       <c r="A6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3273,19 +3260,19 @@
       <c r="A7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3293,19 +3280,19 @@
       <c r="A8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3313,19 +3300,19 @@
       <c r="A9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3333,19 +3320,19 @@
       <c r="A10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3353,19 +3340,19 @@
       <c r="A11" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3373,19 +3360,19 @@
       <c r="A12" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3393,19 +3380,19 @@
       <c r="A13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3421,7 +3408,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -3462,19 +3449,19 @@
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3482,19 +3469,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3502,19 +3489,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3571,19 +3558,19 @@
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3591,19 +3578,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3611,19 +3598,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3680,19 +3667,19 @@
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3700,19 +3687,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3720,19 +3707,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3740,19 +3727,19 @@
       <c r="A5" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3760,19 +3747,19 @@
       <c r="A6" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3780,19 +3767,19 @@
       <c r="A7" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3849,19 +3836,19 @@
       <c r="A2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3869,19 +3856,19 @@
       <c r="A3" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3889,19 +3876,19 @@
       <c r="A4" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3916,8 +3903,8 @@
   <sheetPr/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3960,19 +3947,19 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3980,19 +3967,19 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4000,19 +3987,19 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4020,19 +4007,19 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4040,19 +4027,19 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4060,19 +4047,19 @@
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4080,19 +4067,19 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4100,19 +4087,19 @@
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4120,19 +4107,19 @@
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4140,19 +4127,19 @@
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4160,19 +4147,19 @@
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4180,19 +4167,19 @@
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4200,19 +4187,19 @@
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4220,19 +4207,19 @@
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4240,19 +4227,19 @@
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4260,19 +4247,19 @@
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4280,19 +4267,19 @@
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4300,19 +4287,19 @@
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4320,19 +4307,19 @@
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4340,19 +4327,19 @@
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4360,19 +4347,19 @@
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4380,19 +4367,19 @@
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4400,19 +4387,19 @@
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4420,799 +4407,799 @@
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:6">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:6">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:6">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:6">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:6">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:6">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:6">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:6">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:6">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" ht="27" spans="1:6">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:6">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:6">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" ht="27" spans="1:6">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" ht="27" spans="1:6">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:6">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:6">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" ht="27" spans="1:6">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:6">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" ht="27" spans="1:6">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:6">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" ht="27" spans="1:6">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" ht="27" spans="1:6">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:6">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:6">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:6">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" ht="27" spans="1:6">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:6">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" ht="27" spans="1:6">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" ht="27" spans="1:6">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:6">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5270,19 +5257,19 @@
       <c r="A2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5290,19 +5277,19 @@
       <c r="A3" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5310,19 +5297,19 @@
       <c r="A4" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5330,19 +5317,19 @@
       <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5350,19 +5337,19 @@
       <c r="A6" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5370,19 +5357,19 @@
       <c r="A7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5398,7 +5385,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -5440,19 +5427,19 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5460,19 +5447,19 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5480,19 +5467,19 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5549,19 +5536,19 @@
       <c r="A2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5569,19 +5556,19 @@
       <c r="A3" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5589,19 +5576,19 @@
       <c r="A4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5658,19 +5645,19 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5678,19 +5665,19 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5698,19 +5685,19 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5718,19 +5705,19 @@
       <c r="A5" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5738,19 +5725,19 @@
       <c r="A6" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5758,19 +5745,19 @@
       <c r="A7" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5778,19 +5765,19 @@
       <c r="A8" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5798,19 +5785,19 @@
       <c r="A9" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5818,19 +5805,19 @@
       <c r="A10" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5881,19 +5868,19 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5901,19 +5888,19 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5921,19 +5908,19 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5941,19 +5928,19 @@
       <c r="A5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5961,19 +5948,19 @@
       <c r="A6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5981,19 +5968,19 @@
       <c r="A7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6050,19 +6037,19 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6070,19 +6057,19 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6090,19 +6077,19 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6159,17 +6146,17 @@
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6177,17 +6164,17 @@
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6195,15 +6182,15 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6259,17 +6246,17 @@
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6277,17 +6264,17 @@
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6295,15 +6282,15 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6359,17 +6346,17 @@
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6377,17 +6364,17 @@
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6395,15 +6382,15 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6459,17 +6446,17 @@
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6477,17 +6464,17 @@
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6495,15 +6482,15 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6555,56 +6542,56 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6621,7 +6608,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -6662,19 +6649,19 @@
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6682,19 +6669,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6702,19 +6689,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6730,7 +6717,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -6770,17 +6757,17 @@
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6788,17 +6775,17 @@
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6806,15 +6793,15 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6830,7 +6817,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -6870,17 +6857,17 @@
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6888,17 +6875,17 @@
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6906,15 +6893,15 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6930,7 +6917,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -6971,19 +6958,19 @@
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6991,19 +6978,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7011,19 +6998,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7039,7 +7026,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -7079,17 +7066,17 @@
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7097,17 +7084,17 @@
       <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7115,15 +7102,15 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7182,19 +7169,19 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7202,19 +7189,19 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7222,19 +7209,19 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7242,19 +7229,19 @@
       <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7262,19 +7249,19 @@
       <c r="A6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7282,19 +7269,19 @@
       <c r="A7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7352,19 +7339,19 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7372,19 +7359,19 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7392,19 +7379,19 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7412,19 +7399,19 @@
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7432,19 +7419,19 @@
       <c r="A6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7452,19 +7439,19 @@
       <c r="A7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7521,19 +7508,19 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7541,19 +7528,19 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7561,19 +7548,19 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7581,19 +7568,19 @@
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7601,19 +7588,19 @@
       <c r="A6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7621,19 +7608,19 @@
       <c r="A7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7690,19 +7677,19 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7710,19 +7697,19 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7730,19 +7717,19 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7800,19 +7787,19 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7820,19 +7807,19 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7840,19 +7827,19 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7860,19 +7847,19 @@
       <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7880,19 +7867,19 @@
       <c r="A6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7900,19 +7887,19 @@
       <c r="A7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7965,23 +7952,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7989,19 +7976,19 @@
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8009,19 +7996,19 @@
       <c r="A4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/API-Auto/testFile/case/个人中心.xlsx
+++ b/API-Auto/testFile/case/个人中心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="52" activeTab="58"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1我的订单(商品图片)" sheetId="1" r:id="rId1"/>
@@ -1528,8 +1528,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1543,12 +1543,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1557,7 +1573,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,13 +1633,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1597,22 +1644,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1632,41 +1663,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1678,7 +1679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1695,7 +1695,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1791,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,43 +1833,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,115 +1869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,17 +1892,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1937,6 +1943,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1954,35 +1969,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,10 +1994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2006,133 +2006,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2507,7 +2507,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4068,16 +4068,16 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="36.5" customWidth="1"/>
   </cols>
@@ -4340,7 +4340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>194</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>197</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>199</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>194</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>197</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>199</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>194</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>197</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>199</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>194</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>197</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>199</v>
       </c>
@@ -10862,7 +10862,7 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
